--- a/HML.xlsx
+++ b/HML.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="24900" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="10760" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Coord1</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Carré</t>
+  </si>
+  <si>
+    <t>Carré_p</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,6 +109,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -183,6 +192,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,13 +212,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -251,13 +262,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1206500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -298,13 +309,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
@@ -345,13 +356,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -392,13 +403,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -439,13 +450,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -486,13 +497,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
@@ -533,13 +544,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -580,13 +591,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -634,13 +645,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -688,13 +699,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -742,13 +753,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
@@ -789,13 +800,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -834,13 +845,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1130300</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -879,13 +890,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -924,13 +935,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -951,6 +962,53 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Connecteur droit avec flèche 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2298700" y="3949700"/>
+          <a:ext cx="0" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1227,93 +1285,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I25"/>
+  <dimension ref="C3:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13:K14"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E4" s="3" t="s">
+    <row r="3" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="4"/>
-      <c r="H5" s="4"/>
+    <row r="5" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="2" t="s">
+    <row r="6" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H7" s="5" t="s">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J7" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="2" t="s">
+    <row r="8" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="15" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="C17" s="4"/>
+    <row r="17" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="7"/>
       <c r="E17" s="4"/>
-      <c r="G17" s="7"/>
-      <c r="I17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="I17" s="7"/>
+      <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1"/>
+      <c r="K18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="19" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1323,37 +1378,47 @@
       <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="K19" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
+    <row r="21" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="4"/>
+    <row r="23" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="9"/>
       <c r="E23" s="4"/>
-      <c r="I23" s="3" t="s">
+      <c r="G23" s="4"/>
+      <c r="K23" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="4"/>
+      <c r="G24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="2" t="s">
+    <row r="25" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/HML.xlsx
+++ b/HML.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="10760" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="22160" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,12 +109,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -192,8 +186,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,14 +794,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519545</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -817,9 +809,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2641600" y="3517900"/>
-          <a:ext cx="647700" cy="12700"/>
+        <a:xfrm>
+          <a:off x="4927600" y="3521364"/>
+          <a:ext cx="354445" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1009,6 +1001,184 @@
         <a:ln w="38100">
           <a:tailEnd type="triangle"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519545</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533977</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Connecteur droit 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5282045" y="3550227"/>
+          <a:ext cx="14432" cy="2179205"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>490682</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>938068</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80241</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Connecteur droit 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5253182" y="5715000"/>
+          <a:ext cx="4834659" cy="8082"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>931718</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>210127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>946150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>51377</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Connecteur droit 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10081491" y="3515013"/>
+          <a:ext cx="14432" cy="2179205"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>923637</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1933863</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>181264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Connecteur droit 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10073410" y="3478068"/>
+          <a:ext cx="1010226" cy="8082"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1287,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1387,7 +1557,7 @@
     </row>
     <row r="21" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1398,7 +1568,7 @@
       </c>
     </row>
     <row r="23" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="9"/>
+      <c r="C23" s="4"/>
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>
       <c r="K23" s="3" t="s">

--- a/HML.xlsx
+++ b/HML.xlsx
@@ -974,53 +974,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Connecteur droit avec flèche 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2298700" y="3949700"/>
-          <a:ext cx="0" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>519545</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -1179,6 +1132,53 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>418523</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>418523</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Connecteur droit avec flèche 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4228523" y="5036704"/>
+          <a:ext cx="0" cy="392546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1455,16 +1455,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K25"/>
+  <dimension ref="C3:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1557,9 +1557,6 @@
     </row>
     <row r="21" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E22" s="3" t="s">
         <v>17</v>
       </c>
@@ -1568,7 +1565,6 @@
       </c>
     </row>
     <row r="23" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="4"/>
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>
       <c r="K23" s="3" t="s">
@@ -1576,9 +1572,6 @@
       </c>
     </row>
     <row r="24" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1590,6 +1583,20 @@
     <row r="25" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K25" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="E27" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/HML.xlsx
+++ b/HML.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Coord1</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Rectangle</t>
   </si>
   <si>
-    <t>4 Lignes</t>
-  </si>
-  <si>
     <t>4 lignes</t>
   </si>
   <si>
@@ -84,6 +81,33 @@
   </si>
   <si>
     <t>Carré_p</t>
+  </si>
+  <si>
+    <t>Dessin</t>
+  </si>
+  <si>
+    <t>addH/L</t>
+  </si>
+  <si>
+    <t>loadVec</t>
+  </si>
+  <si>
+    <t>loadForme</t>
+  </si>
+  <si>
+    <t>drawAll</t>
+  </si>
+  <si>
+    <t>vector&lt;Forme *&gt; m_formes</t>
+  </si>
+  <si>
+    <t>vector&lt;unsigned int&gt; m_h</t>
+  </si>
+  <si>
+    <t>vector&lt;unsigned int&gt; m_l</t>
+  </si>
+  <si>
+    <t>3 lignes</t>
   </si>
 </sst>
 </file>
@@ -99,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -186,6 +216,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,26 +615,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Losange 19"/>
+        <xdr:cNvPr id="21" name="Losange 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5867400" y="850900"/>
-          <a:ext cx="355600" cy="228600"/>
+          <a:off x="8483600" y="2768600"/>
+          <a:ext cx="228600" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -637,26 +669,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Losange 20"/>
+        <xdr:cNvPr id="22" name="Losange 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8483600" y="2768600"/>
-          <a:ext cx="228600" cy="292100"/>
+          <a:off x="2476500" y="3352800"/>
+          <a:ext cx="241300" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -692,25 +724,295 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519545</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connecteur droit 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4927600" y="3521364"/>
+          <a:ext cx="354445" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519545</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533977</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Connecteur droit 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5282045" y="3550227"/>
+          <a:ext cx="14432" cy="2179205"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>490682</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>938068</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80241</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Connecteur droit 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5253182" y="5715000"/>
+          <a:ext cx="4834659" cy="8082"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>931718</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>210127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>946150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>51377</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Connecteur droit 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10081491" y="3515013"/>
+          <a:ext cx="14432" cy="2179205"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>923637</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1933863</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>181264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Connecteur droit 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10073410" y="3478068"/>
+          <a:ext cx="1010226" cy="8082"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>418523</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>418523</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Connecteur droit avec flèche 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4228523" y="5036704"/>
+          <a:ext cx="0" cy="392546"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>36945</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>86013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>392545</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>98713</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Losange 21"/>
+        <xdr:cNvPr id="23" name="Losange 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476500" y="3352800"/>
-          <a:ext cx="241300" cy="355600"/>
+          <a:off x="11250468" y="908627"/>
+          <a:ext cx="355600" cy="229177"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -745,440 +1047,176 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>477404</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:rowOff>202045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>871104</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>214745</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Connecteur droit 23"/>
+        <xdr:cNvPr id="26" name="Connecteur droit 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11690927" y="1024659"/>
+          <a:ext cx="1346200" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>909205</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Connecteur droit 3"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="20" idx="1"/>
+          <a:endCxn id="21" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11861223" y="1342159"/>
+          <a:ext cx="1214005" cy="1418359"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28864</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>72158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>384464</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Losange 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4648200" y="952500"/>
-          <a:ext cx="1219200" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>519545</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+          <a:off x="7057159" y="909203"/>
+          <a:ext cx="355600" cy="288637"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>462973</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>880341</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>43295</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Connecteur droit 24"/>
+        <xdr:cNvPr id="34" name="Connecteur droit 33"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4927600" y="3521364"/>
-          <a:ext cx="354445" cy="0"/>
+          <a:off x="7491268" y="1082386"/>
+          <a:ext cx="2899641" cy="14432"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1117600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Connecteur droit 31"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4419600" y="203200"/>
-          <a:ext cx="12700" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1117600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Connecteur droit 34"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4419600" y="215900"/>
-          <a:ext cx="4165600" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Connecteur droit 36"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="21" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8597900" y="203200"/>
-          <a:ext cx="12700" cy="2565400"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>519545</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28863</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533977</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Connecteur droit 12"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5282045" y="3550227"/>
-          <a:ext cx="14432" cy="2179205"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>490682</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>72159</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>938068</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80241</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Connecteur droit 27"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5253182" y="5715000"/>
-          <a:ext cx="4834659" cy="8082"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>931718</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>210127</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>946150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>51377</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Connecteur droit 29"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10081491" y="3515013"/>
-          <a:ext cx="14432" cy="2179205"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>923637</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1933863</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>181264</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Connecteur droit 32"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10073410" y="3478068"/>
-          <a:ext cx="1010226" cy="8082"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>418523</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>14431</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>418523</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Connecteur droit avec flèche 35"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4228523" y="5036704"/>
-          <a:ext cx="0" cy="392546"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1455,65 +1493,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K29"/>
+  <dimension ref="C1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="10" max="10" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="G4" s="3" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="9"/>
       <c r="J4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="4"/>
+      <c r="M4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="9"/>
       <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="9"/>
       <c r="J6" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J7" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="J8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1524,71 +1599,73 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="G18" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18" s="1"/>
       <c r="K18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E22" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>
       <c r="K23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K25" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1596,7 +1673,7 @@
     </row>
     <row r="29" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/HML.xlsx
+++ b/HML.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="22160" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="1520" yWindow="460" windowWidth="27200" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,23 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
-  <si>
-    <t>Coord1</t>
-  </si>
-  <si>
-    <t>int x, y</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Forme</t>
   </si>
   <si>
-    <t>string Couleur</t>
-  </si>
-  <si>
-    <t>unsigned int transparence</t>
-  </si>
-  <si>
     <t>Rectangle</t>
   </si>
   <si>
@@ -50,9 +38,6 @@
     <t>Cercle</t>
   </si>
   <si>
-    <t>unsigned int rayon</t>
-  </si>
-  <si>
     <t>Point</t>
   </si>
   <si>
@@ -62,15 +47,9 @@
     <t>Ligne</t>
   </si>
   <si>
-    <t>Coord2</t>
-  </si>
-  <si>
     <t>Triangle</t>
   </si>
   <si>
-    <t>Coord3</t>
-  </si>
-  <si>
     <t>Cercle_p</t>
   </si>
   <si>
@@ -107,7 +86,91 @@
     <t>vector&lt;unsigned int&gt; m_l</t>
   </si>
   <si>
-    <t>3 lignes</t>
+    <t>Cimage</t>
+  </si>
+  <si>
+    <t>Cligne</t>
+  </si>
+  <si>
+    <t>Cpixel</t>
+  </si>
+  <si>
+    <t>Cbitmap</t>
+  </si>
+  <si>
+    <t>LoadBMP</t>
+  </si>
+  <si>
+    <t>dump</t>
+  </si>
+  <si>
+    <t>CImage *getImage</t>
+  </si>
+  <si>
+    <t>void setImage</t>
+  </si>
+  <si>
+    <t>int size</t>
+  </si>
+  <si>
+    <t>CLigne* getLigne</t>
+  </si>
+  <si>
+    <t>CPixel* getPixel</t>
+  </si>
+  <si>
+    <t>void drawPixel</t>
+  </si>
+  <si>
+    <t>CLigne** liste</t>
+  </si>
+  <si>
+    <t>int taille</t>
+  </si>
+  <si>
+    <t>CPixel** ligne</t>
+  </si>
+  <si>
+    <t>int Red</t>
+  </si>
+  <si>
+    <t>int Green</t>
+  </si>
+  <si>
+    <t>int Blue</t>
+  </si>
+  <si>
+    <t>void RGB</t>
+  </si>
+  <si>
+    <t>CImage *image;</t>
+  </si>
+  <si>
+    <t>&amp; autres</t>
+  </si>
+  <si>
+    <t>string m_couleur</t>
+  </si>
+  <si>
+    <t>Coord m_c1</t>
+  </si>
+  <si>
+    <t>unsigned int m_transparence</t>
+  </si>
+  <si>
+    <t>Coord</t>
+  </si>
+  <si>
+    <t>int m_x, m_y</t>
+  </si>
+  <si>
+    <t>Coord m_c2</t>
+  </si>
+  <si>
+    <t>Coord m_c3</t>
+  </si>
+  <si>
+    <t>unsigned int m_rayon</t>
   </si>
 </sst>
 </file>
@@ -236,13 +299,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -286,13 +349,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1206500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -333,14 +396,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1366212</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -351,8 +414,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3822700" y="1600200"/>
-          <a:ext cx="2387600" cy="1435100"/>
+          <a:off x="10257367" y="1597121"/>
+          <a:ext cx="3577936" cy="1505912"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -380,16 +443,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:rowOff>19242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1385454</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -398,8 +461,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2032000" y="1371600"/>
-          <a:ext cx="4178300" cy="1714500"/>
+          <a:off x="6519333" y="1289242"/>
+          <a:ext cx="7335212" cy="1864592"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -427,13 +490,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -474,13 +537,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -521,13 +584,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
@@ -568,13 +631,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -615,13 +678,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -669,13 +732,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -723,13 +786,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>519545</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -768,13 +831,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>519545</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>28863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>533977</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
@@ -812,13 +875,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>490682</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>72159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>938068</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>80241</xdr:rowOff>
@@ -857,13 +920,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>931718</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>210127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>946150</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>51377</xdr:rowOff>
@@ -901,14 +964,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>923637</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1933863</xdr:colOff>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2347576</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>181264</xdr:rowOff>
     </xdr:to>
@@ -919,8 +982,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10073410" y="3478068"/>
-          <a:ext cx="1010226" cy="8082"/>
+          <a:off x="14989849" y="3559848"/>
+          <a:ext cx="1423939" cy="8083"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -946,13 +1009,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>418523</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>14431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>418523</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -993,13 +1056,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>36945</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>86013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>392545</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>98713</xdr:rowOff>
@@ -1047,13 +1110,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>477404</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>202045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>871104</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>214745</xdr:rowOff>
@@ -1092,13 +1155,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>909205</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1138,13 +1201,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>28864</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>72158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>384464</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>144317</xdr:rowOff>
@@ -1192,16 +1255,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>462973</xdr:colOff>
       <xdr:row>5</xdr:row>
+      <xdr:rowOff>19243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1443182</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>28863</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>880341</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>43295</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1209,9 +1272,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7491268" y="1082386"/>
-          <a:ext cx="2899641" cy="14432"/>
+        <a:xfrm flipV="1">
+          <a:off x="10199640" y="1077576"/>
+          <a:ext cx="3712633" cy="9620"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1493,187 +1556,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:M29"/>
+  <dimension ref="B1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="F2" s="3" t="s">
+    <row r="1" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="K4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="K5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="F4" s="1" t="s">
+      <c r="H6" s="9"/>
+      <c r="K6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="7"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="J17" s="7"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="L18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="L23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="4:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="J4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="5" t="s">
+      <c r="D45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="J5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
+      <c r="D46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="J6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="F9" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-      <c r="E17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="I17" s="7"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="K18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="K23" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="K25" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K26" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="E27" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="2" t="s">
-        <v>10</v>
+      <c r="D48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
